--- a/6/1/2/2/Posiciones 2007 a 2021 - Mensual.xlsx
+++ b/6/1/2/2/Posiciones 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
   <si>
     <t>Serie</t>
   </si>
@@ -560,6 +560,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -917,7 +920,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H175"/>
+  <dimension ref="A1:H176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5473,6 +5476,32 @@
         <v>618</v>
       </c>
     </row>
+    <row r="176" spans="1:8">
+      <c r="A176" t="s">
+        <v>182</v>
+      </c>
+      <c r="B176">
+        <v>132109</v>
+      </c>
+      <c r="C176">
+        <v>129314</v>
+      </c>
+      <c r="D176">
+        <v>70963</v>
+      </c>
+      <c r="E176">
+        <v>58351</v>
+      </c>
+      <c r="F176">
+        <v>2795</v>
+      </c>
+      <c r="G176">
+        <v>2127</v>
+      </c>
+      <c r="H176">
+        <v>668</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/1/2/2/Posiciones 2007 a 2021 - Mensual.xlsx
+++ b/6/1/2/2/Posiciones 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
   <si>
     <t>Serie</t>
   </si>
@@ -563,6 +563,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -920,7 +923,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H176"/>
+  <dimension ref="A1:H177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5502,6 +5505,32 @@
         <v>668</v>
       </c>
     </row>
+    <row r="177" spans="1:8">
+      <c r="A177" t="s">
+        <v>183</v>
+      </c>
+      <c r="B177">
+        <v>131569</v>
+      </c>
+      <c r="C177">
+        <v>128772</v>
+      </c>
+      <c r="D177">
+        <v>71128</v>
+      </c>
+      <c r="E177">
+        <v>57644</v>
+      </c>
+      <c r="F177">
+        <v>2797</v>
+      </c>
+      <c r="G177">
+        <v>2127</v>
+      </c>
+      <c r="H177">
+        <v>670</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/1/2/2/Posiciones 2007 a 2021 - Mensual.xlsx
+++ b/6/1/2/2/Posiciones 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
   <si>
     <t>Serie</t>
   </si>
@@ -566,6 +566,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -923,7 +926,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H177"/>
+  <dimension ref="A1:H178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5531,6 +5534,32 @@
         <v>670</v>
       </c>
     </row>
+    <row r="178" spans="1:8">
+      <c r="A178" t="s">
+        <v>184</v>
+      </c>
+      <c r="B178">
+        <v>132419</v>
+      </c>
+      <c r="C178">
+        <v>129569</v>
+      </c>
+      <c r="D178">
+        <v>71977</v>
+      </c>
+      <c r="E178">
+        <v>57592</v>
+      </c>
+      <c r="F178">
+        <v>2849</v>
+      </c>
+      <c r="G178">
+        <v>2167</v>
+      </c>
+      <c r="H178">
+        <v>682</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
